--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>227.6400370209942</v>
+        <v>1582.403106595918</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.660533294480464</v>
+        <v>7.932600280313991</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.660533294480464</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.51999999999998</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.7</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,12 +595,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -813,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -824,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.33301651610694</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>36.56872016525512</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -944,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.57537733795152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -966,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1012,15 +1045,197 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.41</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.505</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.055</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -1167,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -1189,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>146.3599999999999</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>139.4300000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0199999999999</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>150.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1277,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>150.29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.705000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.625</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.525</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1332,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.025</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1343,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -1354,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -1376,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>146.3599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>139.4300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>146.0199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>150.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>150.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1453,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.41</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
@@ -1464,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
@@ -1475,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.505</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1486,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.055</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41">
@@ -1497,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
@@ -1632,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1643,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.289999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1654,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -1665,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -1676,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.505</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1687,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.055</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -1910,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1921,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1932,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1943,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1954,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2009,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2020,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2031,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2042,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2053,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2064,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2160,12 +2375,111 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
